--- a/biology/Zoologie/Plecia_dumasi/Plecia_dumasi.xlsx
+++ b/biology/Zoologie/Plecia_dumasi/Plecia_dumasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plecia dumasi est une espèce fossile de mouches ou diptères de la famille des Bibionidae ou « mouches de Saint-Marc » (ou mouches noires), et du genre Plecia.
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Plecia dumasi est publiée en 1937 par le paléontologue français Nicolas Théobald(1903-1981)[1]. 
-Fossiles
-L'holotype Ni16 de l'ère Cénozoïque, et de l'époque Miocène supérieur (37,2 à 33,9 Ma) fait partie des collections du muséum d'histoire naturelle de Nîmes et vient de la localité des Fumades de la commune d'Allègre-les-Fumades dans l'arrondissement d'Alès dans le département du Gard[2]. 
-Confirmation du genre Plecia
-Cette espèce est confirmée dans le genre Plecia en 2017 par John Skartveit et André Nel[3],[1]. 
-Étymologie
-L'épithète spécifique dumasi est un hommage au géologue et paléontologue français du Gard, Émilien Dumas (1804-1870), le premier à établir une carte géologique de ce département de 1844 à 1852[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Plecia dumasi est publiée en 1937 par le paléontologue français Nicolas Théobald(1903-1981). 
 </t>
         </is>
       </c>
@@ -545,18 +553,205 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype Ni16 de l'ère Cénozoïque, et de l'époque Miocène supérieur (37,2 à 33,9 Ma) fait partie des collections du muséum d'histoire naturelle de Nîmes et vient de la localité des Fumades de la commune d'Allègre-les-Fumades dans l'arrondissement d'Alès dans le département du Gard. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plecia_dumasi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_dumasi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre Plecia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est confirmée dans le genre Plecia en 2017 par John Skartveit et André Nel,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plecia_dumasi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_dumasi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique dumasi est un hommage au géologue et paléontologue français du Gard, Émilien Dumas (1804-1870), le premier à établir une carte géologique de ce département de 1844 à 1852.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plecia_dumasi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_dumasi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[2],[note 1] : 
-« Thorax et tête noirs, abdomen jaune-brunâtre avec segments bien individualisés. Ailes jaunes. Tête petite, arrondie ; yeux non visibles ; antennes très effacées, on voit encore quelques articles lui donnant une forme cylindrique. Thorax noir, étroit, forme ovale. Abdomen fusiforme, légèrement étiré vers l'arrière ; 7 segments bien visibles. Ailes à nervation bien conservée dans la partie extérieure, du genre Plecia ; branche antérieure de Rs courte. Les ailes atteignent l'extrémité de l'abdomen. Pattes finement poilues ; tibias avec soies raides à l'extrémité, 1 aux pattes II, 2 aux pattes III ; tarses de 5 articles, le dernier muni de 2 griffes recourbées. »[2].
-Dimensions
-La longueur totale est de 7 mm ; la tête a une longueur de 0,5 mm ; le thorax a une longueur de 1,5 mm ; l'abdomen a une longueur de 5 mm ; les ailes ont une longueur de 6 mm[2].
-Affinités
-« Se distingue des autres espèces du même genre par la petite taille de la tête et du thorax. »[2].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Thorax et tête noirs, abdomen jaune-brunâtre avec segments bien individualisés. Ailes jaunes. Tête petite, arrondie ; yeux non visibles ; antennes très effacées, on voit encore quelques articles lui donnant une forme cylindrique. Thorax noir, étroit, forme ovale. Abdomen fusiforme, légèrement étiré vers l'arrière ; 7 segments bien visibles. Ailes à nervation bien conservée dans la partie extérieure, du genre Plecia ; branche antérieure de Rs courte. Les ailes atteignent l'extrémité de l'abdomen. Pattes finement poilues ; tibias avec soies raides à l'extrémité, 1 aux pattes II, 2 aux pattes III ; tarses de 5 articles, le dernier muni de 2 griffes recourbées. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plecia_dumasi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_dumasi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 7 mm ; la tête a une longueur de 0,5 mm ; le thorax a une longueur de 1,5 mm ; l'abdomen a une longueur de 5 mm ; les ailes ont une longueur de 6 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plecia_dumasi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_dumasi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Se distingue des autres espèces du même genre par la petite taille de la tête et du thorax. ».
 </t>
         </is>
       </c>
